--- a/histogram data.xlsx
+++ b/histogram data.xlsx
@@ -8,13 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayapatel/Documents/_/honours/Honours-FCI-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47547ACD-0C39-C744-9E60-24690FCA599B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6633FFA1-2278-4347-B12D-0A3818100DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="440" windowWidth="15420" windowHeight="14500" xr2:uid="{6055889B-F950-7643-9A4D-F30D418FDAC2}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25540" windowHeight="14500" xr2:uid="{6055889B-F950-7643-9A4D-F30D418FDAC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$39:$B$45</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$39:$C$45</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$39:$C$45</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$39:$D$45</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$39:$B$45</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$39:$C$45</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$39:$D$45</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$39:$D$45</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$39:$B$45</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$39:$C$45</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$39:$D$45</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$39:$B$45</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$39:$C$45</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$39:$D$45</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$39:$B$45</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,24 +50,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>2014 111 pre</t>
-  </si>
-  <si>
-    <t>2014 111 post</t>
   </si>
   <si>
     <t>2015 111 pre</t>
   </si>
   <si>
-    <t>2015 111 post</t>
-  </si>
-  <si>
     <t>2016 111 pre</t>
-  </si>
-  <si>
-    <t>2016 111 post</t>
   </si>
   <si>
     <t>2017 111 pre</t>
@@ -157,7 +165,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> FDM Pre Scores</a:t>
+              <a:t> Force in the Direction of Motion Pre Scores</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -235,40 +243,58 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>5.2288000000000001E-2</c:v>
                 </c:pt>
@@ -289,6 +315,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.20915</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.193333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.153333</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13333300000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14666699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3332999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -296,7 +340,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-27D3-F747-A68C-9EDD7EFF9EFF}"/>
+              <c16:uniqueId val="{00000000-0DA2-0A45-A701-1892B8A4089E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -305,7 +349,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>Sheet1!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -338,40 +382,58 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4.8077000000000002E-2</c:v>
                 </c:pt>
@@ -392,6 +454,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24338599999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.15343899999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.148148</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16931199999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.10582</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5873000000000002E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -399,7 +479,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-27D3-F747-A68C-9EDD7EFF9EFF}"/>
+              <c16:uniqueId val="{00000001-0DA2-0A45-A701-1892B8A4089E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -408,7 +488,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$F$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -441,40 +521,58 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>4.5455000000000002E-2</c:v>
                 </c:pt>
@@ -495,6 +593,24 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.152893</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.194215</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.119835</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18595</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.14462800000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11157</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.4792999999999999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -502,7 +618,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-27D3-F747-A68C-9EDD7EFF9EFF}"/>
+              <c16:uniqueId val="{00000002-0DA2-0A45-A701-1892B8A4089E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -511,7 +627,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>Sheet1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -549,32 +665,32 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$8</c:f>
+              <c:f>Sheet1!$E$2:$E$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -605,7 +721,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-27D3-F747-A68C-9EDD7EFF9EFF}"/>
+              <c16:uniqueId val="{00000003-0DA2-0A45-A701-1892B8A4089E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -614,7 +730,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$J$1</c:f>
+              <c:f>Sheet1!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -647,40 +763,61 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$8</c:f>
+              <c:f>Sheet1!$A$2:$A$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>5.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>2.8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>3.8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5</c:v>
+                  <c:v>4.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$2:$J$8</c:f>
+              <c:f>Sheet1!$F$2:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>6.1797999999999999E-2</c:v>
                 </c:pt>
@@ -701,6 +838,27 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.13483100000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15662699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6385999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.192771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16867499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.16867499999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.4217000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.16265099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,7 +866,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-27D3-F747-A68C-9EDD7EFF9EFF}"/>
+              <c16:uniqueId val="{00000004-0DA2-0A45-A701-1892B8A4089E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -733,11 +891,12 @@
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:ln w="288925" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
                 <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                  <a:lumMod val="25000"/>
+                  <a:lumOff val="75000"/>
+                  <a:alpha val="51000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -813,6 +972,859 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
+          <a:ln w="288925" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+                <a:alpha val="53000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="214194543"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2019 112 FDM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2293E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7771000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.101911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14649699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.296178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29936299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5986999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3340-0A4B-A4BE-FEB3D73F0966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$39:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12538199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.146789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.199266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16819600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19877700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4219999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3340-0A4B-A4BE-FEB3D73F0966}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1728802816"/>
+        <c:axId val="1728806128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1728802816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1728806128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1728806128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1728802816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2019 112 FDM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$39:$C$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2.2293E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.7771000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.101911</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14649699999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.296178</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29936299999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5986999999999994E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F38-DA43-B7CC-1471E1C6D3FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$B$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$39:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.12538199999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.146789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.199266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16819600000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19877700000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17737</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.4219999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F38-DA43-B7CC-1471E1C6D3FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1682770160"/>
+        <c:axId val="1728823136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1682770160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
@@ -844,7 +1856,69 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214194543"/>
+        <c:crossAx val="1728823136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1728823136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1682770160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -971,6 +2045,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1487,27 +2641,1046 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073336E6-A1BF-4941-A203-4A6080DACE9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3801B7F5-A71E-8C40-9479-AFB78F6A02B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1520,6 +3693,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>658518</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>77143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112889</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>129824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99566367-47D9-4843-881B-E945CEC17E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>686740</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>190030</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>141111</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>35749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C55018E-11D8-DC48-AFE3-D1F03D9C73AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1825,27 +4070,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A1E61A-36C7-CB4D-A1A9-373339964347}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="107" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>0</v>
@@ -1862,196 +4100,350 @@
       <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="B2">
         <v>5.2288000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>1.3332999999999999E-2</v>
+        <v>4.8077000000000002E-2</v>
       </c>
       <c r="D2">
-        <v>4.8077000000000002E-2</v>
+        <v>4.5455000000000002E-2</v>
       </c>
       <c r="E2">
-        <v>1.5873000000000002E-2</v>
+        <v>3.7634000000000001E-2</v>
       </c>
       <c r="F2">
-        <v>4.5455000000000002E-2</v>
-      </c>
-      <c r="H2">
-        <v>3.7634000000000001E-2</v>
-      </c>
-      <c r="J2">
         <v>6.1797999999999999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="B3">
         <v>9.1503000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>0.22</v>
+        <v>4.8077000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>4.8077000000000002E-2</v>
+        <v>7.8511999999999998E-2</v>
       </c>
       <c r="E3">
-        <v>0.164021</v>
+        <v>0.15053800000000001</v>
       </c>
       <c r="F3">
-        <v>7.8511999999999998E-2</v>
-      </c>
-      <c r="H3">
-        <v>0.15053800000000001</v>
-      </c>
-      <c r="J3">
         <v>0.146067</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="B4">
         <v>0.130719</v>
       </c>
       <c r="C4">
-        <v>0.153333</v>
+        <v>0.105769</v>
       </c>
       <c r="D4">
-        <v>0.105769</v>
+        <v>0.12396699999999999</v>
       </c>
       <c r="E4">
-        <v>0.15343899999999999</v>
+        <v>0.155914</v>
       </c>
       <c r="F4">
-        <v>0.12396699999999999</v>
-      </c>
-      <c r="H4">
-        <v>0.155914</v>
-      </c>
-      <c r="J4">
         <v>0.13483100000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="B5">
         <v>0.15032699999999999</v>
       </c>
       <c r="C5">
-        <v>0.193333</v>
+        <v>0.144231</v>
       </c>
       <c r="D5">
-        <v>0.144231</v>
+        <v>0.14876</v>
       </c>
       <c r="E5">
-        <v>0.24338599999999999</v>
+        <v>0.15592400000000001</v>
       </c>
       <c r="F5">
-        <v>0.14876</v>
-      </c>
-      <c r="H5">
-        <v>0.15592400000000001</v>
-      </c>
-      <c r="J5">
         <v>0.106742</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="B6">
         <v>0.17647099999999999</v>
       </c>
       <c r="C6">
-        <v>0.13333300000000001</v>
+        <v>0.17307700000000001</v>
       </c>
       <c r="D6">
-        <v>0.17307700000000001</v>
+        <v>0.198347</v>
       </c>
       <c r="E6">
-        <v>0.148148</v>
+        <v>0.12903200000000001</v>
       </c>
       <c r="F6">
-        <v>0.198347</v>
-      </c>
-      <c r="H6">
-        <v>0.12903200000000001</v>
-      </c>
-      <c r="J6">
         <v>0.185393</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="B7">
         <v>0.18954199999999999</v>
       </c>
       <c r="C7">
-        <v>0.14000000000000001</v>
+        <v>0.230769</v>
       </c>
       <c r="D7">
-        <v>0.230769</v>
+        <v>0.25206600000000001</v>
       </c>
       <c r="E7">
-        <v>0.16931199999999999</v>
+        <v>0.18817200000000001</v>
       </c>
       <c r="F7">
-        <v>0.25206600000000001</v>
-      </c>
-      <c r="H7">
-        <v>0.18817200000000001</v>
-      </c>
-      <c r="J7">
         <v>0.23033699999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="B8">
         <v>0.20915</v>
       </c>
       <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
+        <v>0.152893</v>
+      </c>
+      <c r="E8">
+        <v>0.18279599999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.13483100000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="B9">
+        <v>0.193333</v>
+      </c>
+      <c r="C9">
+        <v>0.24338599999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.194215</v>
+      </c>
+      <c r="E9">
+        <v>0.16666700000000001</v>
+      </c>
+      <c r="F9">
+        <v>0.15662699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="B10">
+        <v>0.153333</v>
+      </c>
+      <c r="C10">
+        <v>0.15343899999999999</v>
+      </c>
+      <c r="D10">
+        <v>0.119835</v>
+      </c>
+      <c r="E10">
+        <v>0.14516100000000001</v>
+      </c>
+      <c r="F10">
+        <v>9.6385999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="B11">
+        <v>0.13333300000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.148148</v>
+      </c>
+      <c r="D11">
+        <v>0.18595</v>
+      </c>
+      <c r="E11">
+        <v>0.14516100000000001</v>
+      </c>
+      <c r="F11">
+        <v>0.192771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0.16931199999999999</v>
+      </c>
+      <c r="D12">
+        <v>0.14462800000000001</v>
+      </c>
+      <c r="E12">
+        <v>0.16128999999999999</v>
+      </c>
+      <c r="F12">
+        <v>0.16867499999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="B13">
         <v>0.14666699999999999</v>
       </c>
-      <c r="D8">
+      <c r="C13">
+        <v>0.10582</v>
+      </c>
+      <c r="D13">
+        <v>0.11157</v>
+      </c>
+      <c r="E13">
+        <v>0.112903</v>
+      </c>
+      <c r="F13">
+        <v>0.16867499999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="B14">
+        <v>1.3332999999999999E-2</v>
+      </c>
+      <c r="C14">
+        <v>1.5873000000000002E-2</v>
+      </c>
+      <c r="D14">
+        <v>2.4792999999999999E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.6129000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>5.4217000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>0.25</v>
       </c>
-      <c r="E8">
-        <v>0.10582</v>
-      </c>
-      <c r="F8">
-        <v>0.152893</v>
-      </c>
-      <c r="H8">
-        <v>0.18279599999999999</v>
-      </c>
-      <c r="J8">
-        <v>0.13483100000000001</v>
+      <c r="F15">
+        <v>0.16265099999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>2.2293E-2</v>
+      </c>
+      <c r="D39">
+        <v>0.12538199999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>4.7771000000000001E-2</v>
+      </c>
+      <c r="D40">
+        <v>0.146789</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>0.101911</v>
+      </c>
+      <c r="D41">
+        <v>0.199266</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>0.14649699999999999</v>
+      </c>
+      <c r="D42">
+        <v>0.16819600000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>0.296178</v>
+      </c>
+      <c r="D43">
+        <v>0.19877700000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>0.29936299999999999</v>
+      </c>
+      <c r="D44">
+        <v>0.17737</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>8.5986999999999994E-2</v>
+      </c>
+      <c r="D45">
+        <v>6.4219999999999999E-2</v>
       </c>
     </row>
   </sheetData>

--- a/histogram data.xlsx
+++ b/histogram data.xlsx
@@ -8,31 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mayapatel/Documents/_/honours/Honours-FCI-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6633FFA1-2278-4347-B12D-0A3818100DFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBF3451-537C-7143-9775-1A76165120CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="440" windowWidth="25540" windowHeight="14500" xr2:uid="{6055889B-F950-7643-9A4D-F30D418FDAC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$B$39:$B$45</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$39:$C$45</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$C$39:$C$45</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$D$39:$D$45</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$B$39:$B$45</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$C$39:$C$45</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$D$39:$D$45</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$D$39:$D$45</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$B$39:$B$45</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$C$39:$C$45</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$D$39:$D$45</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$B$39:$B$45</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$C$39:$C$45</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$D$39:$D$45</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$B$39:$B$45</definedName>
-  </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4074,7 +4057,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" zoomScale="107" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M46" sqref="M46"/>
+      <selection pane="topRight" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
